--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3860411.264139206</v>
+        <v>3858117.668682612</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>143.1175458707144</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>220.8789552701361</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>39.15797524740199</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>141.5568839703544</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846239</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>260.1478989722367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039586</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>9.595802811127321</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>71.68269007697916</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>63.25786276724239</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039586</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>26.05155675490728</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417139</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,16 +1607,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>105.8965430419533</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>45.66054613217701</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2087,13 +2087,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877915</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>123.9815576456784</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711285</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>728.3028554854573</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C2" t="n">
-        <v>359.3403385450455</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="D2" t="n">
-        <v>359.3403385450455</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="E2" t="n">
-        <v>359.3403385450455</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>352.3948377958421</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>340.730491560535</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4349,31 +4349,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.042027525391</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143501</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>662.3527266874019</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1025.614745646622</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.3634259803388</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803388</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1194.247214264734</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1194.247214264734</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>939.5627260588469</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>650.1455560218863</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X4" t="n">
-        <v>422.1560051238689</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.3634259803388</v>
+        <v>535.7199774115534</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265599</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2994.542934265599</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>2994.542934265599</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1092.298121480354</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>864.3085705823368</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>643.5159914388066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>198.8933197100319</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>191.9478189608284</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>180.915772846229</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450751</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180637</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.078555102614</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.939223126803</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518377</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395019</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571088</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591984</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339174</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177516</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088492</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153514</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009984</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452603</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452603</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718124</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121652</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>430.7826650753335</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>282.8695714929404</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>282.8695714929404</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>282.8695714929404</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277359</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277359</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>363.7369613277359</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797747</v>
@@ -5729,16 +5729,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5780,19 +5780,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096656</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>229.5592957321584</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576786</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>219.0505596597682</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>219.0505596597682</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,7 +6312,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6959,25 +6959,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,13 +7397,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7412,46 +7412,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>70.0306496210797</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>34.39816980427057</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>119.8635921600918</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>16.31315520054551</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911101</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>654369.4223716106</v>
+        <v>654369.4223716108</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634687.7742349395</v>
+        <v>634687.7742349394</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634687.7742349395</v>
+        <v>634687.7742349394</v>
       </c>
     </row>
     <row r="10">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176758</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176762</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176757</v>
-      </c>
       <c r="E2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977557</v>
@@ -26335,16 +26335,16 @@
         <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="L2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.934697756</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977558</v>
@@ -26353,7 +26353,7 @@
         <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977554</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>49110.09270605442</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.027935512</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312027</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931203</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768777</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.14432176889</v>
+        <v>9947.144321768958</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768872</v>
+        <v>9947.144321768959</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768919</v>
+        <v>9947.144321768916</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26442,19 +26442,19 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768938</v>
       </c>
       <c r="L4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="M4" t="n">
         <v>9947.144321768879</v>
       </c>
-      <c r="M4" t="n">
-        <v>9947.144321768923</v>
-      </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768879</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768879</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-545104.2408053098</v>
+        <v>-545104.2408053101</v>
       </c>
       <c r="C6" t="n">
-        <v>400008.8643510569</v>
+        <v>400008.8643510565</v>
       </c>
       <c r="D6" t="n">
-        <v>603447.6059631621</v>
+        <v>603447.6059631627</v>
       </c>
       <c r="E6" t="n">
-        <v>350485.7987447242</v>
+        <v>350451.0608192888</v>
       </c>
       <c r="F6" t="n">
-        <v>675898.2605520799</v>
+        <v>675863.5226266441</v>
       </c>
       <c r="G6" t="n">
-        <v>675898.2605520796</v>
+        <v>675863.5226266438</v>
       </c>
       <c r="H6" t="n">
-        <v>675898.2605520799</v>
+        <v>675863.5226266442</v>
       </c>
       <c r="I6" t="n">
-        <v>675898.2605520799</v>
+        <v>675863.5226266443</v>
       </c>
       <c r="J6" t="n">
-        <v>508293.082742097</v>
+        <v>508258.3448166614</v>
       </c>
       <c r="K6" t="n">
-        <v>626788.1678460252</v>
+        <v>626753.4299205896</v>
       </c>
       <c r="L6" t="n">
-        <v>675898.2605520796</v>
+        <v>675863.522626644</v>
       </c>
       <c r="M6" t="n">
-        <v>590843.232616568</v>
+        <v>590808.4946911321</v>
       </c>
       <c r="N6" t="n">
-        <v>675898.2605520799</v>
+        <v>675863.5226266442</v>
       </c>
       <c r="O6" t="n">
-        <v>675898.2605520799</v>
+        <v>675863.522626644</v>
       </c>
       <c r="P6" t="n">
-        <v>675898.2605520798</v>
+        <v>675863.5226266438</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,19 +26814,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>238.8128242015474</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>80.13959729226929</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>128.0888458512258</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>79.19181202685755</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.8193423825452</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>126.0900396838169</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034321</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.9271955254637</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>222.9250743103413</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>306.4732379112266</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944225</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>226.0860865689207</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28093,13 +28093,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.508117851338566e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28327,16 +28327,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,13 +28612,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28807,13 +28807,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>399.1902208908119</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>162.5000833330452</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
@@ -32479,7 +32479,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159428</v>
@@ -32552,19 +32552,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L21" t="n">
-        <v>384.4721492652006</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32573,7 +32573,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32707,34 +32707,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33731,7 +33731,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>251.8861049150245</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984174</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215495</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>367.7110102589299</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>261.3487819164529</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>23.94570355317105</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,7 +35978,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
@@ -36127,7 +36127,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L21" t="n">
-        <v>245.9177694853264</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>120.5443928316912</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150841</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
